--- a/theo/outputs/USO/correlations.xlsx
+++ b/theo/outputs/USO/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.5923066740225219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.07981693968110748</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.0336183688921355</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.1163602621910683</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.7666293051650208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05659504275957791</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05668508629053604</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5432873958194411</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5459366543451356</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05659504275957791</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05668508629053604</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5432873958194411</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5459366543451356</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.03830379459511693</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.04307240998477551</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.08872371011390989</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.5923066740225219</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.07268900225287404</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.263714938226575</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.7771947616119724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6795791060465833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.05581622117724588</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.0558839642708512</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.1492583868955181</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.1501550171092067</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08316847485895459</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08305261911612967</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.1215518245898506</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.1224194187797655</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.1602090893960707</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1282761884519168</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1867325558205959</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.07981693968110748</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.07268900225287404</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.3527528031146127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07896566298934088</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.05455024427057491</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.008569310897027733</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.009027564882195123</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.006680586478788841</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.007434571347392893</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.04144981889011533</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.037876031364098</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.006653768940446099</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.007051925354929191</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.6327659676701618</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.2693151714617658</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.878885747658377</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.0336183688921355</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.263714938226575</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.3527528031146127</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2909739851098139</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1143329080811813</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.03179269575560833</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.03386176483646567</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.1268143137648296</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.1246376366365649</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.06919890736755573</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.07516065654278767</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.1165391667680246</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.1139859266699824</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.5013556805470506</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2966101103187768</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.1960915754816709</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.1163602621910683</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.7771947616119724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07896566298934088</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2909739851098139</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.392931718751531</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.08352035249789677</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.08209593693200075</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.298279743657814</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.2935822398956739</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>-0.01681414235451716</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>-0.01601301119807744</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.2874750297892142</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.2828695551061217</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1677744664322395</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1732951084054691</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2425536865372984</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.7666293051650208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6795791060465833</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.05455024427057491</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1143329080811813</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.392931718751531</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.08046340446863491</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.0801328184656671</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6239517078520136</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6231154003571117</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1003252384941641</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1007376809993363</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6273204594858527</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.626667370558745</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.04417339267413429</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.0560078717719894</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.02165824312443564</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05659504275957791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.05581622117724588</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.008569310897027733</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.03179269575560833</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.08352035249789677</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.08046340446863491</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996526312263971</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1734425957461202</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1736111465587696</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.005617629220576</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.005207954561030758</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1748664014572043</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1749933154701903</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.02112923574227013</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>0.029529622205643</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.04561065220327257</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05668508629053604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.0558839642708512</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.009027564882195123</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.03386176483646567</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.08209593693200075</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.0801328184656671</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996526312263971</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1733897839988219</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.173630118937659</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.005380358080199501</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.005013416515918225</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1749390093390118</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1751328970873295</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.02230852591079175</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>0.02851144377656441</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.04467368765472404</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5432873958194411</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.1492583868955181</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.006680586478788841</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.1268143137648296</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.298279743657814</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6239517078520136</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1734425957461202</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1733897839988219</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999827895671457</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04348325772046484</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04412742912328297</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9797379336112201</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9798086290055782</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.1111213728950908</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>0.06016845719512852</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>0.169722673377952</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5459366543451356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.1501550171092067</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.007434571347392893</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.1246376366365649</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.2935822398956739</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6231154003571117</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1736111465587696</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.173630118937659</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999827895671457</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04163645209057942</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.04225485720154615</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9794455447861404</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9798420764410792</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.1100172820560945</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>0.05896302592037952</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>0.1687973502290763</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05659504275957791</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08316847485895459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.04144981889011533</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.06919890736755573</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>-0.01681414235451716</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1003252384941641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.005617629220576</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.005380358080199501</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04348325772046484</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04163645209057942</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996526312263971</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1734425957461202</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1736111465587696</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.09042204678872359</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05632802458800686</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.03060899264203632</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05668508629053604</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08305261911612967</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.037876031364098</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.07516065654278767</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>-0.01601301119807744</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1007376809993363</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.005207954561030758</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.005013416515918225</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04412742912328297</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.04225485720154615</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996526312263971</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1733897839988219</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.173630118937659</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.09216868214088009</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.05743922423803163</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.02759364039014564</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5432873958194411</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.1215518245898506</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.006653768940446099</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.1165391667680246</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.2874750297892142</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6273204594858527</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1748664014572043</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1749390093390118</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9797379336112201</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9794455447861404</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1734425957461202</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1733897839988219</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999827895671457</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.1024352166620216</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>0.05043578318463564</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.1574450132382565</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5459366543451356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.1224194187797655</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.007051925354929191</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.1139859266699824</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.2828695551061217</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.626667370558745</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1749933154701903</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1751328970873295</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9798086290055782</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9798420764410792</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1736111465587696</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.173630118937659</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999827895671457</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.1006953330741632</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>0.04905374124920821</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.156218181848712</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.03830379459511693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.1602090893960707</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.6327659676701618</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.5013556805470506</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1677744664322395</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.04417339267413429</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.02112923574227013</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.02230852591079175</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.1111213728950908</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.1100172820560945</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.09042204678872359</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.09216868214088009</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.1024352166620216</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.1006953330741632</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.4932739631814977</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6504171342346934</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.04307240998477551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1282761884519168</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.2693151714617658</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2966101103187768</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1732951084054691</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.0560078717719894</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>0.029529622205643</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>0.02851144377656441</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>0.06016845719512852</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>0.05896302592037952</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05632802458800686</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.05743922423803163</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>0.05043578318463564</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>0.04905374124920821</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.4932739631814977</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.3429791112035839</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.08872371011390989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1867325558205959</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.878885747658377</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.1960915754816709</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2425536865372984</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.02165824312443564</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.04561065220327257</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.04467368765472404</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>0.169722673377952</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>0.1687973502290763</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.03060899264203632</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.02759364039014564</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.1574450132382565</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.156218181848712</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6504171342346934</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.3429791112035839</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1021629796100594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.1383179667240272</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.148649300750951</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.4950269498264779</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.09762010991435513</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.00250816399044399</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.002564986224617689</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.023128710394178</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.01659175935234778</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.00250816399044399</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.002564986224617689</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.023128710394178</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.01659175935234778</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.02725232756093557</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.06124429858630661</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01067550757149734</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1021629796100594</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.06808905209187512</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.02670962378011161</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.09356524426536153</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8101985746334016</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05865258442058868</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05867737647216497</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3033586721513781</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.298332378748221</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.06052171181039941</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.06044088739866921</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2827232072907224</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2776721295892462</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.03276981402839469</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.05965036143812597</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.06967207753213854</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.1383179667240272</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.06808905209187512</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.05958261376605362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.1459118623970558</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.1104266857452098</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.06623006069482704</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.06913593339640585</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>0.05403317207810231</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>0.05362796009453905</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.01841153612768489</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.01970690289296459</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.0565302609904887</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.05589954421215931</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.6422830378976557</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.4079243272038834</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.7918577046392432</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.148649300750951</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.02670962378011161</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.05958261376605362</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.29878071800913</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.06670567599082768</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.0265278248159109</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.026420310704924</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.06515770205137936</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.06689225783658365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.05475946239704953</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.05672431940778495</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.06951244813674365</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.07129176430183186</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.7268369207270706</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1400358641942332</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.02061921759409511</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.4950269498264779</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.09356524426536153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.1459118623970558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.29878071800913</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2232596415033354</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.02918384516934398</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.03028451724534635</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.211321666559575</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.21560306431273</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.02777421274471868</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.02757180639184011</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.2111225333926801</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.2151475556842192</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1290212073039324</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1240135356946907</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1754644497405592</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.09762010991435513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8101985746334016</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.1104266857452098</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.06670567599082768</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2232596415033354</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04745437294981932</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04748039234911935</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3127530038088629</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3175439648945929</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06792256747837082</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06773274137425493</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.316645860085064</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3214147499264721</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>-0.02475841180125763</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>-0.04466413127914116</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.08256008242921371</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.00250816399044399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05865258442058868</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.06623006069482704</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.0265278248159109</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.02918384516934398</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04745437294981932</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995297793623444</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1746810200342033</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1748852840427907</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06954066735363841</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06813537567842175</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1611888817672121</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1613862983934575</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>0.003399931682573866</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.02307212848234831</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.05729722774458417</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.002564986224617689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05867737647216497</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.06913593339640585</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.026420310704924</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.03028451724534635</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04748039234911935</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995297793623444</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.174818418319993</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1751319108448791</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.06883113552189397</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.06747408800602035</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1615268932417146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1618320958593647</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>0.005495788388971034</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.02217282637797728</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.05888349964464842</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.023128710394178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3033586721513781</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>0.05403317207810231</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.06515770205137936</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.211321666559575</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3127530038088629</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1746810200342033</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.174818418319993</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996435197264891</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01323808639400808</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01312111285562772</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9742442002153718</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9738005512287899</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.01285357252069846</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.02374643912414028</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.02131280090026211</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.01659175935234778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.298332378748221</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>0.05362796009453905</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.06689225783658365</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.21560306431273</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3175439648945929</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1748852840427907</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1751319108448791</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996435197264891</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01257135818288572</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01240230456779695</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9738215738684239</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9740639909897844</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.01446421842233457</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.02551515494042031</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.01847431385543639</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.00250816399044399</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.06052171181039941</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.01841153612768489</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.05475946239704953</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.02777421274471868</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06792256747837082</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06954066735363841</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.06883113552189397</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01323808639400808</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01257135818288572</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995297793623444</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1746810200342033</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1748852840427907</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.04089436919665156</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.04795461189023018</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.01085711958635561</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.002564986224617689</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.06044088739866921</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.01970690289296459</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.05672431940778495</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.02757180639184011</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06773274137425493</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06813537567842175</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.06747408800602035</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01312111285562772</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01240230456779695</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995297793623444</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.174818418319993</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1751319108448791</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.04133705789739647</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.04934398349994625</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.01259153580590945</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.023128710394178</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2827232072907224</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.0565302609904887</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.06951244813674365</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.2111225333926801</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.316645860085064</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1611888817672121</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1615268932417146</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9742442002153718</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9738215738684239</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1746810200342033</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.174818418319993</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996435197264891</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01637150897421695</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.0318916009161851</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.01862310666831038</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.01659175935234778</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2776721295892462</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.05589954421215931</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.07129176430183186</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.2151475556842192</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3214147499264721</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1613862983934575</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1618320958593647</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9738005512287899</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9740639909897844</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1748852840427907</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1751319108448791</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996435197264891</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01816517627664401</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.03390282448178726</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.01578757676976392</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.02725232756093557</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.03276981402839469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.6422830378976557</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.7268369207270706</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1290212073039324</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>-0.02475841180125763</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>0.003399931682573866</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>0.005495788388971034</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.01285357252069846</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.01446421842233457</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.04089436919665156</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.04133705789739647</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01637150897421695</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01816517627664401</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3879329658163558</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.560655890940956</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.06124429858630661</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.05965036143812597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.4079243272038834</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1400358641942332</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1240135356946907</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>-0.04466413127914116</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.02307212848234831</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.02217282637797728</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.02374643912414028</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.02551515494042031</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.04795461189023018</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.04934398349994625</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.0318916009161851</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.03390282448178726</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3879329658163558</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.5499033844220134</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01067550757149734</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.06967207753213854</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.7918577046392432</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.02061921759409511</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1754644497405592</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.08256008242921371</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.05729722774458417</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.05888349964464842</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.02131280090026211</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.01847431385543639</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.01085711958635561</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.01259153580590945</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.01862310666831038</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.01578757676976392</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.560655890940956</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.5499033844220134</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.3784380501518411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.0606388281514908</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.05847728506674269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.1817607750979275</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.3641621382848951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001976715085007054</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001857108109204897</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02295216506922097</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02250389309185285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001976715085007054</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001857108109204897</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02295216506922097</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02250389309185285</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.004687685975503117</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.04598985116710869</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.0164204919271004</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.3784380501518411</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1091165217932381</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.07994203002555367</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.2592761115742183</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.8850816379431584</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.04403806771691347</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.0437865939498603</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.2490004622544</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.2426992955645358</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.04544250663087743</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.04561123780032086</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.2338110993723732</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.2274943293281494</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.02252278797381652</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01446244283252896</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.03001770172227947</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.0606388281514908</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1091165217932381</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.06649172036665821</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1320555126733537</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1011584524728892</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.07078611319799523</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.07388860375470652</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02095739385521271</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02054030146703125</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.03668204392647006</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.03768498233161311</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01276528325334864</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01248946216701094</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.6832437236951318</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.4520231741986027</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.7872798369492586</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.05847728506674269</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.07994203002555367</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.06649172036665821</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3172403168815457</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.09860937724377374</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.0213458423275195</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02126904619785508</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.03805479000662763</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.03973738296217566</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03144904690245064</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03278746126941597</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.0407677028395563</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.04242474380180038</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.6831444168544503</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1137518667583568</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.02806076991394095</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.1817607750979275</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.2592761115742183</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1320555126733537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3172403168815457</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.306275470844165</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0159311787939629</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01690166056174937</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.09523909801997084</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.100203965689086</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.0003555103917635781</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.0003702187681528645</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.09221536982378567</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.09711505348745743</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1355077781288652</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1029381193080228</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1614002133034312</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.3641621382848951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.8850816379431584</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1011584524728892</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.09860937724377374</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.306275470844165</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.0368818009423837</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03696684779756635</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.2303904126073966</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2362990666262345</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.04138758919021481</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.04125710594244919</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.2312809469265482</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2371586303006028</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.001874857922296469</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.02772648185250073</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.00107339481186732</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001976715085007054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.04403806771691347</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.07078611319799523</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.0213458423275195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0159311787939629</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.0368818009423837</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9990754492909589</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1700167837018469</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1701917944918211</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.05002663247948794</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.04976509341244797</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.158827822429565</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1588871765765132</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.03789687407767901</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.05149950571908687</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.05000683475678434</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001857108109204897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.0437865939498603</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.07388860375470652</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02126904619785508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01690166056174937</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03696684779756635</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9990754492909589</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1696249211030272</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1700923601730938</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.05039622484476061</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.05026963803722464</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1583792666690406</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1587055741384051</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.04017751475814535</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.0513582375290182</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.05097544798131489</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02295216506922097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.2490004622544</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02095739385521271</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.03805479000662763</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.09523909801997084</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.2303904126073966</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1700167837018469</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1696249211030272</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9991210320789524</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.009736862651296285</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.01032766649907488</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9700595669223162</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9690830542463617</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0431876523011927</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.02791015341540701</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.06499233538631477</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02250389309185285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.2426992955645358</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02054030146703125</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.03973738296217566</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.100203965689086</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2362990666262345</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1701917944918211</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1700923601730938</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9991210320789524</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.01008853477025002</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.01070745643844053</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.969218359503865</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9699392958462298</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.04411371931726463</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.02942728819974388</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.06661970780516498</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001976715085007054</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.04544250663087743</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.03668204392647006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03144904690245064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.0003555103917635781</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.04138758919021481</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.05002663247948794</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.05039622484476061</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.009736862651296285</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.01008853477025002</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9990754492909589</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1700167837018469</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1701917944918211</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.002892006687798563</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.007375541937366044</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04970999141706904</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001857108109204897</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.04561123780032086</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.03768498233161311</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03278746126941597</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.0003702187681528645</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.04125710594244919</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.04976509341244797</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.05026963803722464</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.01032766649907488</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.01070745643844053</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9990754492909589</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1696249211030272</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1700923601730938</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.002675439879313632</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.006322451864085699</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.05043032644134039</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02295216506922097</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.2338110993723732</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01276528325334864</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.0407677028395563</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.09221536982378567</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.2312809469265482</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.158827822429565</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1583792666690406</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9700595669223162</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.969218359503865</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1700167837018469</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1696249211030272</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9991210320789524</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.039285027099097</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.02553631272705435</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.05494379866520702</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02250389309185285</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.2274943293281494</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01248946216701094</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.04242474380180038</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.09711505348745743</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2371586303006028</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1588871765765132</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1587055741384051</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9690830542463617</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9699392958462298</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1701917944918211</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1700923601730938</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9991210320789524</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.04029183382421805</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.02730990842802573</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.05660612214143249</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.004687685975503117</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.02252278797381652</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.6832437236951318</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.6831444168544503</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1355077781288652</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.001874857922296469</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.03789687407767901</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.04017751475814535</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0431876523011927</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.04411371931726463</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.002892006687798563</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.002675439879313632</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.039285027099097</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.04029183382421805</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4137333635485969</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5967476424230164</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.04598985116710869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01446244283252896</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.4520231741986027</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1137518667583568</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1029381193080228</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.02772648185250073</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.05149950571908687</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.0513582375290182</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.02791015341540701</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.02942728819974388</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.007375541937366044</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.006322451864085699</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.02553631272705435</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.02730990842802573</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4137333635485969</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.5817319287664919</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.0164204919271004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.03001770172227947</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.7872798369492586</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.02806076991394095</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1614002133034312</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.00107339481186732</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.05000683475678434</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.05097544798131489</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.06499233538631477</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.06661970780516498</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04970999141706904</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.05043032644134039</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.05494379866520702</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.05660612214143249</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5967476424230164</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.5817319287664919</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
